--- a/Case2_diesel.xlsx
+++ b/Case2_diesel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zf/ARP_2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55F8EFB-AB4D-9041-82F6-7C6C5EC8B502}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAD6398-00B2-4B48-84FA-78CA94ACDAFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="460" windowWidth="27320" windowHeight="19440" xr2:uid="{05A7550E-7E20-4F74-B6F8-030266226400}"/>
+    <workbookView xWindow="4740" yWindow="760" windowWidth="27320" windowHeight="19440" activeTab="5" xr2:uid="{05A7550E-7E20-4F74-B6F8-030266226400}"/>
   </bookViews>
   <sheets>
     <sheet name="Fahrzeug" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="91">
   <si>
     <t>Masse des Fahrzeugs</t>
   </si>
@@ -368,6 +368,14 @@
   </si>
   <si>
     <t>0.95 0.96 0.94 0.93</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main reducer ration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_main_reducer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -896,15 +904,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B4044A-25E0-4D9D-8553-31801B55667F}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="3"/>
@@ -1044,7 +1052,18 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
@@ -1489,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7AD85F-C598-4FF5-9FAA-2140DEC5AF1C}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/Case2_diesel.xlsx
+++ b/Case2_diesel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zf/ARP_2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAD6398-00B2-4B48-84FA-78CA94ACDAFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C4F44C-0F95-BC4A-80E4-ED19B755E711}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="760" windowWidth="27320" windowHeight="19440" activeTab="5" xr2:uid="{05A7550E-7E20-4F74-B6F8-030266226400}"/>
+    <workbookView xWindow="4740" yWindow="460" windowWidth="27320" windowHeight="19440" activeTab="5" xr2:uid="{05A7550E-7E20-4F74-B6F8-030266226400}"/>
   </bookViews>
   <sheets>
     <sheet name="Fahrzeug" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>Masse des Fahrzeugs</t>
   </si>
@@ -377,6 +377,9 @@
   <si>
     <t>i_main_reducer</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-Bus_diesel</t>
   </si>
 </sst>
 </file>
@@ -1552,7 +1555,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/Case2_diesel.xlsx
+++ b/Case2_diesel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zf/ARP_2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ARP_2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C4F44C-0F95-BC4A-80E4-ED19B755E711}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB43B65-617E-4C1F-9C69-3B9C3209AE25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="460" windowWidth="27320" windowHeight="19440" activeTab="5" xr2:uid="{05A7550E-7E20-4F74-B6F8-030266226400}"/>
+    <workbookView xWindow="1365" yWindow="10965" windowWidth="15465" windowHeight="22665" activeTab="5" xr2:uid="{05A7550E-7E20-4F74-B6F8-030266226400}"/>
   </bookViews>
   <sheets>
     <sheet name="Fahrzeug" sheetId="1" r:id="rId1"/>
@@ -312,9 +312,6 @@
     <t>manhattan</t>
   </si>
   <si>
-    <t>zentral-quer/front</t>
-  </si>
-  <si>
     <t>Massenträgheiten_Get_An</t>
   </si>
   <si>
@@ -380,6 +377,9 @@
   </si>
   <si>
     <t>R-Bus_diesel</t>
+  </si>
+  <si>
+    <t>VKM</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -398,14 +398,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -414,7 +414,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -422,7 +422,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -431,7 +431,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -439,7 +439,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -589,11 +589,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="60% - 着色 4" xfId="4" builtinId="44"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="着色 1" xfId="1" builtinId="29"/>
-    <cellStyle name="着色 2" xfId="2" builtinId="33"/>
-    <cellStyle name="着色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="60% - Accent4" xfId="4" builtinId="44"/>
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="2" builtinId="33"/>
+    <cellStyle name="Accent4" xfId="3" builtinId="41"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -609,7 +609,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -908,16 +908,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="14.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -995,12 +995,12 @@
         <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
@@ -1037,35 +1037,35 @@
         <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1094,10 +1094,10 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1122,7 +1122,7 @@
         <v>52</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="9"/>
     </row>
@@ -1140,7 +1140,7 @@
         <v>42</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H3" s="9"/>
     </row>
@@ -1158,7 +1158,7 @@
         <v>58</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H4" s="9"/>
     </row>
@@ -1221,13 +1221,13 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1294,12 +1294,12 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1354,13 +1354,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="D5" s="3">
         <v>0.8</v>
@@ -1401,11 +1401,11 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1452,7 +1452,7 @@
         <v>62</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -1460,13 +1460,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="D5" s="3">
         <v>0.9</v>
@@ -1474,13 +1474,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="D6" s="3">
         <v>0.5</v>
@@ -1512,15 +1512,15 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1555,7 +1555,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1669,17 +1669,17 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Case2_diesel.xlsx
+++ b/Case2_diesel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ARP_2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB43B65-617E-4C1F-9C69-3B9C3209AE25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BE409E-C98B-4E4A-BA49-C3E8650F9311}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="10965" windowWidth="15465" windowHeight="22665" activeTab="5" xr2:uid="{05A7550E-7E20-4F74-B6F8-030266226400}"/>
+    <workbookView xWindow="-29355" yWindow="8640" windowWidth="19245" windowHeight="21030" xr2:uid="{05A7550E-7E20-4F74-B6F8-030266226400}"/>
   </bookViews>
   <sheets>
     <sheet name="Fahrzeug" sheetId="1" r:id="rId1"/>
@@ -360,14 +360,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5.7 1.43 1 0.7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.95 0.96 0.94 0.93</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>main reducer ration</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -380,6 +372,12 @@
   </si>
   <si>
     <t>VKM</t>
+  </si>
+  <si>
+    <t>0.7 0.96 0.94 0.93</t>
+  </si>
+  <si>
+    <t>4.9 1.36 1 0.73</t>
   </si>
 </sst>
 </file>
@@ -907,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B4044A-25E0-4D9D-8553-31801B55667F}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -953,7 +951,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="3">
-        <v>19700</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -995,7 +993,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1037,7 +1035,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1051,21 +1049,21 @@
         <v>85</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D11" s="3">
-        <v>6</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1091,7 +1089,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1511,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7AD85F-C598-4FF5-9FAA-2140DEC5AF1C}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1555,7 +1553,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/Case2_diesel.xlsx
+++ b/Case2_diesel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ARP_2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BE409E-C98B-4E4A-BA49-C3E8650F9311}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD88A51-7A09-41FB-B1C4-67EBD1B919E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29355" yWindow="8640" windowWidth="19245" windowHeight="21030" xr2:uid="{05A7550E-7E20-4F74-B6F8-030266226400}"/>
+    <workbookView xWindow="1035" yWindow="9870" windowWidth="19245" windowHeight="21030" xr2:uid="{05A7550E-7E20-4F74-B6F8-030266226400}"/>
   </bookViews>
   <sheets>
     <sheet name="Fahrzeug" sheetId="1" r:id="rId1"/>
@@ -951,7 +951,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="3">
-        <v>18000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/Case2_diesel.xlsx
+++ b/Case2_diesel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ARP_2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD88A51-7A09-41FB-B1C4-67EBD1B919E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C2A0DF-41C4-4B7A-A829-B79CAC12794A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="9870" windowWidth="19245" windowHeight="21030" xr2:uid="{05A7550E-7E20-4F74-B6F8-030266226400}"/>
+    <workbookView xWindow="-20460" yWindow="8490" windowWidth="19245" windowHeight="21030" xr2:uid="{05A7550E-7E20-4F74-B6F8-030266226400}"/>
   </bookViews>
   <sheets>
     <sheet name="Fahrzeug" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="94">
   <si>
     <t>Masse des Fahrzeugs</t>
   </si>
@@ -378,13 +378,19 @@
   </si>
   <si>
     <t>4.9 1.36 1 0.73</t>
+  </si>
+  <si>
+    <t>Motorkennzeichen</t>
+  </si>
+  <si>
+    <t>Daimler OM 936 h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,8 +448,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,16 +466,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
       </patternFill>
     </fill>
     <fill>
@@ -516,24 +519,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -546,9 +543,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -558,9 +552,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -570,7 +561,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -585,12 +576,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="60% - Accent4" xfId="4" builtinId="44"/>
+  <cellStyles count="3">
+    <cellStyle name="60% - Accent4" xfId="2" builtinId="44"/>
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
-    <cellStyle name="Accent2" xfId="2" builtinId="33"/>
-    <cellStyle name="Accent4" xfId="3" builtinId="41"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -906,14 +898,14 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="3"/>
@@ -923,10 +915,10 @@
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -934,8 +926,8 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
@@ -951,11 +943,11 @@
         <v>23</v>
       </c>
       <c r="D3" s="3">
-        <v>13000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -969,7 +961,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -997,77 +989,88 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D9" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>86</v>
+      <c r="A11" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="3">
-        <v>5.73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
+      <c r="D12" s="3">
+        <v>9.81</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
@@ -1102,10 +1105,10 @@
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D1" s="3"/>
@@ -1114,15 +1117,15 @@
       <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
@@ -1137,10 +1140,10 @@
       <c r="D3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
@@ -1155,13 +1158,13 @@
       <c r="D4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1179,7 +1182,7 @@
       <c r="H5" s="3"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="14" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1232,10 +1235,10 @@
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D1" s="3"/>
@@ -1244,8 +1247,8 @@
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="3" t="s">
         <v>64</v>
       </c>
@@ -1305,10 +1308,10 @@
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1316,14 +1319,14 @@
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1411,10 +1414,10 @@
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1422,14 +1425,14 @@
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1515,7 +1518,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
     <col min="3" max="3" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -1525,25 +1528,25 @@
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1557,7 +1560,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1571,7 +1574,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1585,7 +1588,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1599,49 +1602,49 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="6"/>
+      <c r="A7" s="5"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="6"/>
+      <c r="A8" s="5"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="6"/>
+      <c r="A9" s="5"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="6"/>
+      <c r="A10" s="5"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="6"/>
+      <c r="A11" s="5"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="6"/>
+      <c r="A12" s="5"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="6"/>
+      <c r="A13" s="5"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="6"/>
+      <c r="A14" s="5"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="6"/>
+      <c r="A15" s="5"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="6"/>
+      <c r="A16" s="5"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="6"/>
+      <c r="A17" s="5"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="6"/>
+      <c r="A18" s="5"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="6"/>
+      <c r="A19" s="5"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="6"/>
+      <c r="A20" s="5"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1656,27 +1659,27 @@
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>83</v>
       </c>
     </row>

--- a/Case2_diesel.xlsx
+++ b/Case2_diesel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ARP_2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C2A0DF-41C4-4B7A-A829-B79CAC12794A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D7C2DD-02E0-4AC9-9BEB-BF61AA4BCE5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20460" yWindow="8490" windowWidth="19245" windowHeight="21030" xr2:uid="{05A7550E-7E20-4F74-B6F8-030266226400}"/>
   </bookViews>
@@ -898,7 +898,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -943,7 +943,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="3">
-        <v>15000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
